--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.05137633333333</v>
+        <v>63.19878633333334</v>
       </c>
       <c r="H2">
-        <v>117.154129</v>
+        <v>189.596359</v>
       </c>
       <c r="I2">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630559</v>
       </c>
       <c r="J2">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630558</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N2">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O2">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P2">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q2">
-        <v>6.079153788060887</v>
+        <v>206.2913717230556</v>
       </c>
       <c r="R2">
-        <v>54.712384092548</v>
+        <v>1856.6223455075</v>
       </c>
       <c r="S2">
-        <v>0.0002273542261366167</v>
+        <v>0.004636223832136891</v>
       </c>
       <c r="T2">
-        <v>0.0002273542261366168</v>
+        <v>0.00463622383213689</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.05137633333333</v>
+        <v>63.19878633333334</v>
       </c>
       <c r="H3">
-        <v>117.154129</v>
+        <v>189.596359</v>
       </c>
       <c r="I3">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630559</v>
       </c>
       <c r="J3">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630558</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>111.38229</v>
       </c>
       <c r="O3">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P3">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q3">
-        <v>1449.87724121949</v>
+        <v>2346.40851567579</v>
       </c>
       <c r="R3">
-        <v>13048.89517097541</v>
+        <v>21117.67664108211</v>
       </c>
       <c r="S3">
-        <v>0.05422394788201208</v>
+        <v>0.05273354377084324</v>
       </c>
       <c r="T3">
-        <v>0.05422394788201209</v>
+        <v>0.05273354377084324</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.05137633333333</v>
+        <v>63.19878633333334</v>
       </c>
       <c r="H4">
-        <v>117.154129</v>
+        <v>189.596359</v>
       </c>
       <c r="I4">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630559</v>
       </c>
       <c r="J4">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630558</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N4">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O4">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P4">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q4">
-        <v>692.8721426700224</v>
+        <v>952.7225887580088</v>
       </c>
       <c r="R4">
-        <v>6235.849284030202</v>
+        <v>8574.503298822079</v>
       </c>
       <c r="S4">
-        <v>0.02591271997720099</v>
+        <v>0.02141163314064762</v>
       </c>
       <c r="T4">
-        <v>0.02591271997720099</v>
+        <v>0.02141163314064762</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.05137633333333</v>
+        <v>63.19878633333334</v>
       </c>
       <c r="H5">
-        <v>117.154129</v>
+        <v>189.596359</v>
       </c>
       <c r="I5">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630559</v>
       </c>
       <c r="J5">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630558</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N5">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O5">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P5">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q5">
-        <v>935.14065925606</v>
+        <v>1964.462521482917</v>
       </c>
       <c r="R5">
-        <v>8416.265933304539</v>
+        <v>17680.16269334625</v>
       </c>
       <c r="S5">
-        <v>0.03497331838052813</v>
+        <v>0.04414963109395491</v>
       </c>
       <c r="T5">
-        <v>0.03497331838052813</v>
+        <v>0.04414963109395491</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.05137633333333</v>
+        <v>63.19878633333334</v>
       </c>
       <c r="H6">
-        <v>117.154129</v>
+        <v>189.596359</v>
       </c>
       <c r="I6">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630559</v>
       </c>
       <c r="J6">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630558</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N6">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O6">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P6">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q6">
-        <v>190.5068675063616</v>
+        <v>351.1698494832473</v>
       </c>
       <c r="R6">
-        <v>1714.561807557255</v>
+        <v>3160.528645349225</v>
       </c>
       <c r="S6">
-        <v>0.007124764884330313</v>
+        <v>0.007892244894701021</v>
       </c>
       <c r="T6">
-        <v>0.007124764884330316</v>
+        <v>0.00789224489470102</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.05137633333333</v>
+        <v>63.19878633333334</v>
       </c>
       <c r="H7">
-        <v>117.154129</v>
+        <v>189.596359</v>
       </c>
       <c r="I7">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630559</v>
       </c>
       <c r="J7">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630558</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N7">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O7">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P7">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q7">
-        <v>737.1731304382185</v>
+        <v>1815.730750521195</v>
       </c>
       <c r="R7">
-        <v>6634.558173943967</v>
+        <v>16341.57675469076</v>
       </c>
       <c r="S7">
-        <v>0.02756953228073356</v>
+        <v>0.04080701053077218</v>
       </c>
       <c r="T7">
-        <v>0.02756953228073357</v>
+        <v>0.04080701053077217</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>10.651417</v>
       </c>
       <c r="I8">
-        <v>0.01364057374025676</v>
+        <v>0.00964209317684522</v>
       </c>
       <c r="J8">
-        <v>0.01364057374025676</v>
+        <v>0.009642093176845218</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N8">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O8">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P8">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q8">
-        <v>0.5527043951115556</v>
+        <v>11.58933344138889</v>
       </c>
       <c r="R8">
-        <v>4.974339556004</v>
+        <v>104.3040009725</v>
       </c>
       <c r="S8">
-        <v>2.067058745572172E-05</v>
+        <v>0.0002604604518878341</v>
       </c>
       <c r="T8">
-        <v>2.067058745572172E-05</v>
+        <v>0.0002604604518878341</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>10.651417</v>
       </c>
       <c r="I9">
-        <v>0.01364057374025676</v>
+        <v>0.00964209317684522</v>
       </c>
       <c r="J9">
-        <v>0.01364057374025676</v>
+        <v>0.009642093176845218</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>111.38229</v>
       </c>
       <c r="O9">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P9">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q9">
         <v>131.81991302277</v>
@@ -1013,10 +1013,10 @@
         <v>1186.37921720493</v>
       </c>
       <c r="S9">
-        <v>0.004929931921371525</v>
+        <v>0.002962540881868959</v>
       </c>
       <c r="T9">
-        <v>0.004929931921371527</v>
+        <v>0.002962540881868959</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>10.651417</v>
       </c>
       <c r="I10">
-        <v>0.01364057374025676</v>
+        <v>0.00964209317684522</v>
       </c>
       <c r="J10">
-        <v>0.01364057374025676</v>
+        <v>0.009642093176845218</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N10">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O10">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P10">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q10">
-        <v>62.99453704497179</v>
+        <v>53.52342013161267</v>
       </c>
       <c r="R10">
-        <v>566.950833404746</v>
+        <v>481.710781184514</v>
       </c>
       <c r="S10">
-        <v>0.002355932210305607</v>
+        <v>0.00120289352830904</v>
       </c>
       <c r="T10">
-        <v>0.002355932210305608</v>
+        <v>0.00120289352830904</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>10.651417</v>
       </c>
       <c r="I11">
-        <v>0.01364057374025676</v>
+        <v>0.00964209317684522</v>
       </c>
       <c r="J11">
-        <v>0.01364057374025676</v>
+        <v>0.009642093176845218</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N11">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O11">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P11">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q11">
-        <v>85.02110169238</v>
+        <v>110.3624015120776</v>
       </c>
       <c r="R11">
-        <v>765.1899152314199</v>
+        <v>993.2616136086981</v>
       </c>
       <c r="S11">
-        <v>0.003179703533494495</v>
+        <v>0.002480301487107566</v>
       </c>
       <c r="T11">
-        <v>0.003179703533494495</v>
+        <v>0.002480301487107566</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>10.651417</v>
       </c>
       <c r="I12">
-        <v>0.01364057374025676</v>
+        <v>0.00964209317684522</v>
       </c>
       <c r="J12">
-        <v>0.01364057374025676</v>
+        <v>0.009642093176845218</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N12">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O12">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P12">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q12">
-        <v>17.32049996440167</v>
+        <v>19.72852498013056</v>
       </c>
       <c r="R12">
-        <v>155.884499679615</v>
+        <v>177.556724821175</v>
       </c>
       <c r="S12">
-        <v>0.0006477692460157247</v>
+        <v>0.0004433818870940536</v>
       </c>
       <c r="T12">
-        <v>0.0006477692460157249</v>
+        <v>0.0004433818870940536</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>10.651417</v>
       </c>
       <c r="I13">
-        <v>0.01364057374025676</v>
+        <v>0.00964209317684522</v>
       </c>
       <c r="J13">
-        <v>0.01364057374025676</v>
+        <v>0.009642093176845218</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N13">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O13">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P13">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q13">
-        <v>67.02229345662123</v>
+        <v>102.0067341247002</v>
       </c>
       <c r="R13">
-        <v>603.2006411095911</v>
+        <v>918.060607122302</v>
       </c>
       <c r="S13">
-        <v>0.00250656624161368</v>
+        <v>0.002292514940577766</v>
       </c>
       <c r="T13">
-        <v>0.002506566241613681</v>
+        <v>0.002292514940577766</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>64.09165766666666</v>
+        <v>79.47571333333333</v>
       </c>
       <c r="H14">
-        <v>192.274973</v>
+        <v>238.42714</v>
       </c>
       <c r="I14">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="J14">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N14">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O14">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P14">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q14">
-        <v>9.977191076741777</v>
+        <v>259.4219742722222</v>
       </c>
       <c r="R14">
-        <v>89.79471969067599</v>
+        <v>2334.79776845</v>
       </c>
       <c r="S14">
-        <v>0.0003731368929545272</v>
+        <v>0.005830289118032266</v>
       </c>
       <c r="T14">
-        <v>0.0003731368929545273</v>
+        <v>0.005830289118032265</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>64.09165766666666</v>
+        <v>79.47571333333333</v>
       </c>
       <c r="H15">
-        <v>192.274973</v>
+        <v>238.42714</v>
       </c>
       <c r="I15">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="J15">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>111.38229</v>
       </c>
       <c r="O15">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P15">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q15">
-        <v>2379.55853360313</v>
+        <v>2950.7289834834</v>
       </c>
       <c r="R15">
-        <v>21416.02680242817</v>
+        <v>26556.5608513506</v>
       </c>
       <c r="S15">
-        <v>0.08899309144253277</v>
+        <v>0.06631513437105072</v>
       </c>
       <c r="T15">
-        <v>0.08899309144253278</v>
+        <v>0.0663151343710507</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>64.09165766666666</v>
+        <v>79.47571333333333</v>
       </c>
       <c r="H16">
-        <v>192.274973</v>
+        <v>238.42714</v>
       </c>
       <c r="I16">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="J16">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N16">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O16">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P16">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q16">
-        <v>1137.151320755675</v>
+        <v>1198.097491159987</v>
       </c>
       <c r="R16">
-        <v>10234.36188680107</v>
+        <v>10782.87742043988</v>
       </c>
       <c r="S16">
-        <v>0.04252831356863983</v>
+        <v>0.02692622621752895</v>
       </c>
       <c r="T16">
-        <v>0.04252831356863983</v>
+        <v>0.02692622621752894</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.09165766666666</v>
+        <v>79.47571333333333</v>
       </c>
       <c r="H17">
-        <v>192.274973</v>
+        <v>238.42714</v>
       </c>
       <c r="I17">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="J17">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N17">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O17">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P17">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q17">
-        <v>1534.76575298222</v>
+        <v>2470.412317540129</v>
       </c>
       <c r="R17">
-        <v>13812.89177683998</v>
+        <v>22233.71085786116</v>
       </c>
       <c r="S17">
-        <v>0.05739869268573923</v>
+        <v>0.05552042417537534</v>
       </c>
       <c r="T17">
-        <v>0.05739869268573924</v>
+        <v>0.05552042417537533</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.09165766666666</v>
+        <v>79.47571333333333</v>
       </c>
       <c r="H18">
-        <v>192.274973</v>
+        <v>238.42714</v>
       </c>
       <c r="I18">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="J18">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N18">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O18">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P18">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q18">
-        <v>312.6624995530483</v>
+        <v>441.6140864103889</v>
       </c>
       <c r="R18">
-        <v>2813.962495977435</v>
+        <v>3974.526777693501</v>
       </c>
       <c r="S18">
-        <v>0.01169326243521438</v>
+        <v>0.009924902505238328</v>
       </c>
       <c r="T18">
-        <v>0.01169326243521438</v>
+        <v>0.009924902505238326</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.09165766666666</v>
+        <v>79.47571333333333</v>
       </c>
       <c r="H19">
-        <v>192.274973</v>
+        <v>238.42714</v>
       </c>
       <c r="I19">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="J19">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N19">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O19">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P19">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q19">
-        <v>1209.858713143042</v>
+        <v>2283.374491684316</v>
       </c>
       <c r="R19">
-        <v>10888.72841828738</v>
+        <v>20550.37042515884</v>
       </c>
       <c r="S19">
-        <v>0.04524749678178799</v>
+        <v>0.05131690747712035</v>
       </c>
       <c r="T19">
-        <v>0.04524749678178799</v>
+        <v>0.05131690747712034</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.688700333333333</v>
+        <v>1.612671333333333</v>
       </c>
       <c r="H20">
-        <v>11.066101</v>
+        <v>4.838013999999999</v>
       </c>
       <c r="I20">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="J20">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N20">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O20">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P20">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q20">
-        <v>0.5742224400235555</v>
+        <v>5.264028010555555</v>
       </c>
       <c r="R20">
-        <v>5.168001960212</v>
+        <v>47.376252095</v>
       </c>
       <c r="S20">
-        <v>2.147534065320601E-05</v>
+        <v>0.0001183045704322409</v>
       </c>
       <c r="T20">
-        <v>2.147534065320601E-05</v>
+        <v>0.0001183045704322409</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.688700333333333</v>
+        <v>1.612671333333333</v>
       </c>
       <c r="H21">
-        <v>11.066101</v>
+        <v>4.838013999999999</v>
       </c>
       <c r="I21">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="J21">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>111.38229</v>
       </c>
       <c r="O21">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P21">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q21">
-        <v>136.95196341681</v>
+        <v>59.87434204133999</v>
       </c>
       <c r="R21">
-        <v>1232.56767075129</v>
+        <v>538.8690783720599</v>
       </c>
       <c r="S21">
-        <v>0.005121865434901418</v>
+        <v>0.001345625118428315</v>
       </c>
       <c r="T21">
-        <v>0.005121865434901419</v>
+        <v>0.001345625118428315</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.688700333333333</v>
+        <v>1.612671333333333</v>
       </c>
       <c r="H22">
-        <v>11.066101</v>
+        <v>4.838013999999999</v>
       </c>
       <c r="I22">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="J22">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N22">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O22">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P22">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q22">
-        <v>65.44705830105978</v>
+        <v>24.31104292739867</v>
       </c>
       <c r="R22">
-        <v>589.023524709538</v>
+        <v>218.799386346588</v>
       </c>
       <c r="S22">
-        <v>0.002447654034049657</v>
+        <v>0.0005463700961542048</v>
       </c>
       <c r="T22">
-        <v>0.002447654034049657</v>
+        <v>0.0005463700961542048</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.688700333333333</v>
+        <v>1.612671333333333</v>
       </c>
       <c r="H23">
-        <v>11.066101</v>
+        <v>4.838013999999999</v>
       </c>
       <c r="I23">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="J23">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N23">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O23">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P23">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q23">
-        <v>88.33116743613999</v>
+        <v>50.12805747714622</v>
       </c>
       <c r="R23">
-        <v>794.98050692526</v>
+        <v>451.152517294316</v>
       </c>
       <c r="S23">
-        <v>0.003303496656990047</v>
+        <v>0.00112658562882734</v>
       </c>
       <c r="T23">
-        <v>0.003303496656990048</v>
+        <v>0.00112658562882734</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.688700333333333</v>
+        <v>1.612671333333333</v>
       </c>
       <c r="H24">
-        <v>11.066101</v>
+        <v>4.838013999999999</v>
       </c>
       <c r="I24">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="J24">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N24">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O24">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P24">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q24">
-        <v>17.99482660162166</v>
+        <v>8.960956091872221</v>
       </c>
       <c r="R24">
-        <v>161.953439414595</v>
+        <v>80.64860482684999</v>
       </c>
       <c r="S24">
-        <v>0.0006729883827760998</v>
+        <v>0.0002013898974293702</v>
       </c>
       <c r="T24">
-        <v>0.0006729883827761</v>
+        <v>0.0002013898974293702</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.688700333333333</v>
+        <v>1.612671333333333</v>
       </c>
       <c r="H25">
-        <v>11.066101</v>
+        <v>4.838013999999999</v>
       </c>
       <c r="I25">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="J25">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N25">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O25">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P25">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q25">
-        <v>69.63162447236923</v>
+        <v>46.33280321196489</v>
       </c>
       <c r="R25">
-        <v>626.6846202513229</v>
+        <v>416.995228907684</v>
       </c>
       <c r="S25">
-        <v>0.002604152592362818</v>
+        <v>0.00104129050413897</v>
       </c>
       <c r="T25">
-        <v>0.002604152592362818</v>
+        <v>0.00104129050413897</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>117.3842696666667</v>
+        <v>170.0436656666667</v>
       </c>
       <c r="H26">
-        <v>352.152809</v>
+        <v>510.130997</v>
       </c>
       <c r="I26">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337929</v>
       </c>
       <c r="J26">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337928</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N26">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O26">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P26">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q26">
-        <v>18.27328751518978</v>
+        <v>555.0508653469444</v>
       </c>
       <c r="R26">
-        <v>164.459587636708</v>
+        <v>4995.4577881225</v>
       </c>
       <c r="S26">
-        <v>0.0006834025403580167</v>
+        <v>0.01247429802068695</v>
       </c>
       <c r="T26">
-        <v>0.0006834025403580168</v>
+        <v>0.01247429802068695</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>117.3842696666667</v>
+        <v>170.0436656666667</v>
       </c>
       <c r="H27">
-        <v>352.152809</v>
+        <v>510.130997</v>
       </c>
       <c r="I27">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337929</v>
       </c>
       <c r="J27">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337928</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>111.38229</v>
       </c>
       <c r="O27">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P27">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q27">
-        <v>4358.176255150291</v>
+        <v>6313.28429398257</v>
       </c>
       <c r="R27">
-        <v>39223.58629635262</v>
+        <v>56819.55864584313</v>
       </c>
       <c r="S27">
-        <v>0.1629914005141053</v>
+        <v>0.141885716587856</v>
       </c>
       <c r="T27">
-        <v>0.1629914005141053</v>
+        <v>0.141885716587856</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>117.3842696666667</v>
+        <v>170.0436656666667</v>
       </c>
       <c r="H28">
-        <v>352.152809</v>
+        <v>510.130997</v>
       </c>
       <c r="I28">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337929</v>
       </c>
       <c r="J28">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337928</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N28">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O28">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P28">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q28">
-        <v>2082.699717046227</v>
+        <v>2563.41064053632</v>
       </c>
       <c r="R28">
-        <v>18744.29745341604</v>
+        <v>23070.69576482687</v>
       </c>
       <c r="S28">
-        <v>0.07789087082711139</v>
+        <v>0.05761048270677399</v>
       </c>
       <c r="T28">
-        <v>0.07789087082711141</v>
+        <v>0.05761048270677398</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>117.3842696666667</v>
+        <v>170.0436656666667</v>
       </c>
       <c r="H29">
-        <v>352.152809</v>
+        <v>510.130997</v>
       </c>
       <c r="I29">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337929</v>
       </c>
       <c r="J29">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337928</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N29">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O29">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P29">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q29">
-        <v>2810.93302283126</v>
+        <v>5285.61429100658</v>
       </c>
       <c r="R29">
-        <v>25298.39720548134</v>
+        <v>47570.52861905922</v>
       </c>
       <c r="S29">
-        <v>0.1051260626738501</v>
+        <v>0.1187897037998574</v>
       </c>
       <c r="T29">
-        <v>0.1051260626738501</v>
+        <v>0.1187897037998573</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>117.3842696666667</v>
+        <v>170.0436656666667</v>
       </c>
       <c r="H30">
-        <v>352.152809</v>
+        <v>510.130997</v>
       </c>
       <c r="I30">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337929</v>
       </c>
       <c r="J30">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337928</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N30">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O30">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P30">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q30">
-        <v>572.6433126924283</v>
+        <v>944.8632156128529</v>
       </c>
       <c r="R30">
-        <v>5153.789814231855</v>
+        <v>8503.768940515676</v>
       </c>
       <c r="S30">
-        <v>0.02141628288219769</v>
+        <v>0.02123500038680591</v>
       </c>
       <c r="T30">
-        <v>0.0214162828821977</v>
+        <v>0.0212350003868059</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>117.3842696666667</v>
+        <v>170.0436656666667</v>
       </c>
       <c r="H31">
-        <v>352.152809</v>
+        <v>510.130997</v>
       </c>
       <c r="I31">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337929</v>
       </c>
       <c r="J31">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337928</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N31">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O31">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P31">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q31">
-        <v>2215.863758443734</v>
+        <v>4885.43420840131</v>
       </c>
       <c r="R31">
-        <v>19942.7738259936</v>
+        <v>43968.90787561178</v>
       </c>
       <c r="S31">
-        <v>0.08287107179531419</v>
+        <v>0.1097959954318127</v>
       </c>
       <c r="T31">
-        <v>0.08287107179531421</v>
+        <v>0.1097959954318126</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>32.52113333333333</v>
+        <v>50.344995</v>
       </c>
       <c r="H32">
-        <v>97.5634</v>
+        <v>151.034985</v>
       </c>
       <c r="I32">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465498</v>
       </c>
       <c r="J32">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465497</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N32">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O32">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P32">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q32">
-        <v>5.062586506755554</v>
+        <v>164.3344545125</v>
       </c>
       <c r="R32">
-        <v>45.5632785608</v>
+        <v>1479.0100906125</v>
       </c>
       <c r="S32">
-        <v>0.0001893356341393413</v>
+        <v>0.003693277659110731</v>
       </c>
       <c r="T32">
-        <v>0.0001893356341393414</v>
+        <v>0.00369327765911073</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>32.52113333333333</v>
+        <v>50.344995</v>
       </c>
       <c r="H33">
-        <v>97.5634</v>
+        <v>151.034985</v>
       </c>
       <c r="I33">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465498</v>
       </c>
       <c r="J33">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465497</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>111.38229</v>
       </c>
       <c r="O33">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P33">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q33">
-        <v>1207.426101354</v>
+        <v>1869.18027771285</v>
       </c>
       <c r="R33">
-        <v>10866.834912186</v>
+        <v>16822.62249941565</v>
       </c>
       <c r="S33">
-        <v>0.04515651955205008</v>
+        <v>0.04200824337784964</v>
       </c>
       <c r="T33">
-        <v>0.0451565195520501</v>
+        <v>0.04200824337784963</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>32.52113333333333</v>
+        <v>50.344995</v>
       </c>
       <c r="H34">
-        <v>97.5634</v>
+        <v>151.034985</v>
       </c>
       <c r="I34">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465498</v>
       </c>
       <c r="J34">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465497</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N34">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O34">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P34">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q34">
-        <v>577.0087881765778</v>
+        <v>758.9515044549302</v>
       </c>
       <c r="R34">
-        <v>5193.0790935892</v>
+        <v>6830.56354009437</v>
       </c>
       <c r="S34">
-        <v>0.02157954726652145</v>
+        <v>0.01705679216246561</v>
       </c>
       <c r="T34">
-        <v>0.02157954726652146</v>
+        <v>0.01705679216246561</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>32.52113333333333</v>
+        <v>50.344995</v>
       </c>
       <c r="H35">
-        <v>97.5634</v>
+        <v>151.034985</v>
       </c>
       <c r="I35">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465498</v>
       </c>
       <c r="J35">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465497</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N35">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O35">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P35">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q35">
-        <v>778.7647176759999</v>
+        <v>1564.91701122401</v>
       </c>
       <c r="R35">
-        <v>7008.882459083999</v>
+        <v>14084.25310101609</v>
       </c>
       <c r="S35">
-        <v>0.0291250157345015</v>
+        <v>0.03517018420185492</v>
       </c>
       <c r="T35">
-        <v>0.02912501573450151</v>
+        <v>0.03517018420185491</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>32.52113333333333</v>
+        <v>50.344995</v>
       </c>
       <c r="H36">
-        <v>97.5634</v>
+        <v>151.034985</v>
       </c>
       <c r="I36">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465498</v>
       </c>
       <c r="J36">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465497</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N36">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O36">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P36">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q36">
-        <v>158.6499586136667</v>
+        <v>279.746579675375</v>
       </c>
       <c r="R36">
-        <v>1427.849627523</v>
+        <v>2517.719217078375</v>
       </c>
       <c r="S36">
-        <v>0.005933348591716065</v>
+        <v>0.006287067407700035</v>
       </c>
       <c r="T36">
-        <v>0.005933348591716067</v>
+        <v>0.006287067407700034</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>32.52113333333333</v>
+        <v>50.344995</v>
       </c>
       <c r="H37">
-        <v>97.5634</v>
+        <v>151.034985</v>
       </c>
       <c r="I37">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465498</v>
       </c>
       <c r="J37">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465497</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N37">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O37">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P37">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q37">
-        <v>613.9016832620222</v>
+        <v>1446.43530137099</v>
       </c>
       <c r="R37">
-        <v>5525.1151493582</v>
+        <v>13017.91771233891</v>
       </c>
       <c r="S37">
-        <v>0.02295930436833448</v>
+        <v>0.03250740813756881</v>
       </c>
       <c r="T37">
-        <v>0.02295930436833448</v>
+        <v>0.03250740813756881</v>
       </c>
     </row>
   </sheetData>
